--- a/document/Mô tả thuộc tính.xlsx
+++ b/document/Mô tả thuộc tính.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Thuộc tính</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>Giá trị</t>
-  </si>
-  <si>
     <t>Giá phòng</t>
   </si>
   <si>
@@ -54,21 +51,6 @@
     <t>khoảng cách trục đường chính</t>
   </si>
   <si>
-    <t>giá phòng cho thuê</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diện tích căn phòng </t>
-  </si>
-  <si>
-    <t>tọa độ x trên map</t>
-  </si>
-  <si>
-    <t>tọa độ y trên map</t>
-  </si>
-  <si>
-    <t>chiều rộng mặt ngay lối ra của phòng</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -78,21 +60,9 @@
     <t>FLOAT</t>
   </si>
   <si>
-    <t>phòng có nhà vệ sinh bên trong hoặc ngoài</t>
-  </si>
-  <si>
-    <t>trang bị trong phòng : điều hòa, nóng lạnh , bếp, tủ…</t>
-  </si>
-  <si>
     <t>Tách thuộc tính</t>
   </si>
   <si>
-    <t>đường chim bay từ phòng đến trục đường chính</t>
-  </si>
-  <si>
-    <t>đặc điểm của vị trí : gần trường học , xe bus, công viên, chợ , bệnh viện,….</t>
-  </si>
-  <si>
     <t>Địa chỉ</t>
   </si>
   <si>
@@ -108,13 +78,7 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>thời điểm giao bán phòng</t>
-  </si>
-  <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>Chú thích</t>
   </si>
   <si>
     <t>tháng/năm</t>
@@ -205,9 +169,6 @@
     <t>Chi tiết</t>
   </si>
   <si>
-    <t>Chung cư mini, hộ gia đình , khu trọ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cô chú minh có nhà 3,5 tầng nhưng không sử dụng hết nên thừa tầng 2 ở ngõ 376/29 Đường Bưởi (gần khu Vĩnh Phúc, Ba Đình) đã chia sẵn 2 phòng 1 to (22 m2 kể cả ban công) có cửa sổ to và 1 nhỏ (16 m2) có cửa sổ . Các phòng đều có điều hoà 12.000 BTU, giường có </t>
   </si>
   <si>
@@ -222,6 +183,57 @@
 3.BẾP riêng biệt ngăn cách với khu vực ngủ, tiếp khách/ làm việc, học tập giúp tiết kiệm điện năng và ngăn mùi (tùy phòng)
 4.PHÒNG VỆ SINH thông thoáng
 5.BAN CÔNG hoặc Khu phơi quần áo (tùy phòng)Các không gian được thiết kế linh hoạt để bạn có thể tùy ý xếp đặt, trang trí nội thất theo gu thẩm mỹ của riêng mình.Trang thiết bị nội thất mới 100%, chất lượng và tinh tế do chủ đầu tư lựa chọn cẩn thận:-Tủ lạnh Sharp inverter 165 lít, nhập khẩu Thái Lan-Điều hòa nhiệt độ Casper-Đệm bông ép cứng bọc gấm Singapore king size (1,8 x 2m)-Tủ quần áo gỗ to, rộng-Cửa ra vào tiêu chuẩn khách sạn, chống ồn, chống cháy, có mắt thần quan sát (tùy phòng)-Kệ bếp, chậu rửa và vòi rửa kiểu dáng hiện đại.-Bình nóng lạnh, chậu rửa lavabo, gương soi, vòi sen nóng lạnh-Bồn cầu liền khối kiểu dáng hiện đại, tiết kiệm nước-Gương, tranh trang tríTIỆN ÍCH KHÁC:-SẢNH CHỜ tại tầng lửng: Không gian chung nơi cư dân tiếp khách, tán gẫu, thư giãn, chơi cờ…-Chỗ để xe miễn phí-Máy giặt sử dụng chung-Khu chứa rác kín, riêng biệt cho tòa nhà-Internet tốc độ cao-Khóa vân tay cổng ra vào-Thang máy sử dụng thẻ từ, cameraĐi bộ đến điểm dừng 20 tuyến xe bus, Km0 ngã tư Cầu Trắng giao 4 con phố Trần Phú, Thanh Bình, Quang Trung, Phùng Hưng. Bao quanh là nhà trẻ, trường học, siêu thị, nhà hàng, quán cà phê, hàng ăn sáng, tiệm giặt là, hiệu thuốc, vườn hoa... Gần các trường Đại học và Bệnh viện lớn...Giá thuê: 3.000.000đ – 3.500.000đ/ thángLưu ý:-Các môi giới và chủ phòng trọ vui lòng không liên hệ-Hình ảnh thật 100%, bao gồm các trang thiết bị liệt kê như trên. Không bao gồm một số đồ đạc cá nhân như đàn piano...</t>
+  </si>
+  <si>
+    <t>điều hòa, nóng lạnh, bếp +2 | còn lại +1</t>
+  </si>
+  <si>
+    <t>Phòng có nhà vệ sinh bên trong hoặc ngoài</t>
+  </si>
+  <si>
+    <t>Trang bị trong phòng : điều hòa, nóng lạnh , bếp, tủ…</t>
+  </si>
+  <si>
+    <t>Thời điểm giao bán phòng</t>
+  </si>
+  <si>
+    <t>Tọa độ y trên map</t>
+  </si>
+  <si>
+    <t>Tọa độ x trên map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diện tích căn phòng </t>
+  </si>
+  <si>
+    <t>Giá phòng cho thuê</t>
+  </si>
+  <si>
+    <t>ban công, gần chợ ,chỗ để xe + 2 | còn lại +1</t>
+  </si>
+  <si>
+    <t>Chiều rộng mặt đường ngay lối ra của phòng</t>
+  </si>
+  <si>
+    <t>Giá tăng dần với : khu trọ cấp 4, nhà tầng, chung cư mini</t>
+  </si>
+  <si>
+    <t>Chung cư mini, nhà tầng , khu trọ cấp 4</t>
+  </si>
+  <si>
+    <t>Đặc điểm của vị trí : cầu thang máy, chỗ để xe, gần trường học , xe bus, công viên, chợ , bệnh viện,….</t>
+  </si>
+  <si>
+    <t>ccmn,nhatang,nhacap</t>
+  </si>
+  <si>
+    <t>Đường chim bay từ phòng đến trục đường chính (đường to xe ô tô đi lại được)</t>
+  </si>
+  <si>
+    <t>Loại giá trị</t>
+  </si>
+  <si>
+    <t>Vùng giá trị</t>
   </si>
 </sst>
 </file>
@@ -410,17 +422,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -435,6 +441,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -741,7 +753,7 @@
   <dimension ref="B2:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,8 +763,8 @@
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,935 +772,950 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="1" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="D3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K10" s="8"/>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="D11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="8"/>
+      <c r="L11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C13" s="10"/>
-      <c r="D13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
+      <c r="D13" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
     </row>
     <row r="18" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>44199</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+        <v>22</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
     </row>
     <row r="19" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
     </row>
     <row r="21" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
     </row>
     <row r="22" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
     </row>
     <row r="24" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
     </row>
     <row r="25" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
     </row>
     <row r="27" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
     </row>
     <row r="29" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
     </row>
     <row r="30" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
     </row>
     <row r="31" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
     </row>
     <row r="32" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
     </row>
     <row r="33" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
     </row>
     <row r="36" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
+        <v>31</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
     </row>
     <row r="40" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
     </row>
     <row r="41" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
     </row>
     <row r="42" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
     </row>
     <row r="44" spans="3:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
     </row>
     <row r="52" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
     </row>
     <row r="54" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <v>44199</v>
       </c>
       <c r="D54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" t="s">
         <v>46</v>
       </c>
-      <c r="E54" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" t="s">
-        <v>59</v>
-      </c>
-      <c r="K54" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
+      <c r="K54" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
     </row>
     <row r="55" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
     </row>
     <row r="56" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
     </row>
     <row r="57" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
     </row>
     <row r="59" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
     </row>
     <row r="60" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="14"/>
-      <c r="U61" s="14"/>
-      <c r="V61" s="14"/>
-      <c r="W61" s="14"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="K54:W61"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
@@ -1697,17 +1724,13 @@
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="D7:I7"/>
     <mergeCell ref="D8:I8"/>
-    <mergeCell ref="K36:W43"/>
-    <mergeCell ref="K45:W52"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
     <mergeCell ref="K16:W16"/>
     <mergeCell ref="F16:J16"/>
     <mergeCell ref="K18:W25"/>
     <mergeCell ref="K27:W34"/>
+    <mergeCell ref="K54:W61"/>
+    <mergeCell ref="K36:W43"/>
+    <mergeCell ref="K45:W52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
